--- a/easypoi/src/main/resources/template/export_06.xlsx
+++ b/easypoi/src/main/resources/template/export_06.xlsx
@@ -112,7 +112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -139,30 +139,8 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
@@ -174,10 +152,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
@@ -189,7 +167,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -202,53 +180,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -264,61 +202,43 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -341,10 +261,9 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffff2600"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1409,7 +1328,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1420,12 +1339,10 @@
     <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.0781" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.9609" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.3672" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="8" width="40.3516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="1" customWidth="1"/>
-    <col min="11" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="29.2" customHeight="1">
@@ -1453,268 +1370,226 @@
       <c r="H1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
     </row>
     <row r="2" ht="20.05" customHeight="1">
-      <c r="A2" t="s" s="7">
+      <c r="A2" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" ht="17.15" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="A3" t="s" s="5">
         <v>0</v>
       </c>
-      <c r="B3" t="s" s="14">
+      <c r="B3" t="s" s="10">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="15">
+      <c r="C3" t="s" s="11">
         <v>8</v>
       </c>
-      <c r="D3" t="s" s="16">
+      <c r="D3" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="E3" t="s" s="16">
+      <c r="E3" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="F3" t="s" s="17">
+      <c r="F3" t="s" s="13">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="18">
+      <c r="G3" t="s" s="14">
         <v>3</v>
       </c>
-      <c r="H3" t="s" s="19">
+      <c r="H3" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="A4" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="23"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/easypoi/src/main/resources/template/export_06.xlsx
+++ b/easypoi/src/main/resources/template/export_06.xlsx
@@ -186,7 +186,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -233,12 +233,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1328,7 +1322,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1339,7 +1333,7 @@
     <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.3672" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.3516" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="8" width="40.3516" style="1" customWidth="1"/>
     <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
@@ -1421,176 +1415,6 @@
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="17"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
